--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대머리 마틴"]  기사 신분은 진작에 박탈당했으니까. 뭐 어때, 이렇게 저축한 돈으로 그럭저럭 먹고살고 됐지.
+    <t xml:space="preserve">[name="대머리 마틴"]  기사 신분은 진작에 박탈당했으니까. 뭐 어때, 이렇게 저축한 돈으로 그럭저럭 먹고살면 됐지.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대머리 마틴"]  난 전혀 모르는 일인 걸.
+    <t xml:space="preserve">[name="대머리 마틴"]  난 전혀 모르는 일인걸.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="‘불꽃 꼬리의 기사' 소나"]  ……있잖아, 우리 뒤를 그렇게나 오래 밟았으면, 이제 슬슬 얼굴이라도 좀 보여주는 게 어때?
+    <t xml:space="preserve">[name="  '불꽃 꼬리의 기사' 소나"]  ……있잖아, 우리 뒤를 그렇게나 오래 밟았으면, 이제 슬슬 얼굴이라도 좀 보여주는 게 어때?
 </t>
   </si>
   <si>
@@ -2012,7 +2012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무에나"]  빛의 기사'라는 호칭은 마가렛에게 어울리지 않아. 마가렛한텐 그런 영광을 감당할 능력도 애초에 없었다!
+    <t xml:space="preserve">[name="무에나"]  '빛의 기사'라는 호칭은 마가렛에게 어울리지 않아. 마가렛한텐 그런 영광을 감당할 능력도 애초에 없었다!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...Are you threatening me? Threatening “Plastic” Knight Szewczyk to take on your dirty work? 
+    <t xml:space="preserve">[name="Plastic Knight"]  ...Are you threatening me? Threatening 'Plastic' Knight Szewczyk to take on your dirty work? 
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  How’d “Plastic” Szewczyk find his way to this little place? Tell you the truth, this bar doesn’t see all that many active knights in it. 
+    <t xml:space="preserve">[name="Bald Marcin"]  How’d 'Plastic' Szewczyk find his way to this little place? Tell you the truth, this bar doesn’t see all that many active knights in it. 
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Hmph... tremendous all around. I’ll have a “Red Edelweiss.”
+    <t xml:space="preserve">[name="Plastic Knight"]  Hmph... tremendous all around. I’ll have a 'Red Edelweiss.'
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I know what you want to say, Marcin. Up there, you’re thinking, “how’s a tiny little Plastic Knight get into such a big mess?”
+    <t xml:space="preserve">[name="Plastic Knight"]  I know what you want to say, Marcin. Up there, you’re thinking, 'how’s a tiny little Plastic Knight get into such a big mess?'
 </t>
   </si>
   <si>
@@ -1340,27 +1340,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  Hey, you’ve been tailing us for ages now. Time you showed your face, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  Oh, the overbearing type... No, I do NOT like fans like you...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  “Wait—that bow—are you—?!” 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  —Thought I’d say that and keel over, Armorless Union assassin?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  Hmm... so this is how you’re molded. Way you dodge about everywhere, no-one’s actually seen your looks before. Real gloomy line of work you’re in...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  Don’t get the chance everyday—
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hey, you’ve been tailing us for ages now. Time you showed your face, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Oh, the overbearing type... No, I do NOT like fans like you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  'Wait—that bow—are you—?!' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  —Thought I’d say that and keel over, Armorless Union assassin?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hmm... so this is how you’re molded. Way you dodge about everywhere, no-one’s actually seen your looks before. Real gloomy line of work you’re in...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Don’t get the chance everyday—
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Flametail” Sonna"]  —to have a real scrap, you and us.
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  —to have a real scrap, you and us.
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  And what happened? Back against the wall, she still chose the path of competition, to flaunt her “convictions.” Yes, indeed. “Convictions.” 
+    <t xml:space="preserve">[name="Młynar"]  And what happened? Back against the wall, she still chose the path of competition, to flaunt her 'convictions.' Yes, indeed. 'Convictions.' 
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  “The Radiant Knight” is a title she should’ve never been conferred! She has no power to shoulder any glory of the sort!
+    <t xml:space="preserve">[name="Młynar"]  'The Radiant Knight' is a title she should’ve never been conferred! She has no power to shoulder any glory of the sort!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_end.xlsx
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...Forget the song and dance, Czarny, I’m busy.
+    <t xml:space="preserve">[name="Plastic Knight"]  ...Forget the song and dance, Czarny, I'm busy.
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m very sorry to say... the Roar Knightclub has decided to switch you out of pole position in their starting lineup for the Major. Their new safeguard knight ranks highly just as you do, and his Arts should be useful to the team. 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I'm very sorry to say... the Roar Knightclub has decided to switch you out of pole position in their starting lineup for the Major. Their new safeguard knight ranks highly just as you do, and his Arts should be useful to the team. 
 </t>
   </si>
   <si>
@@ -1108,39 +1108,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Of course, your down payment will still clear. But the rates for a knightclub’s reserve are an invariably different question. You understand this, correct? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Now, now... don’t make any hasty moves. Your child is celebrating a tenth birthday soon, I hear. You needn’t lose your job now over assaulting someone as insignificant as myself...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Roar Knightclub will still be paying you plenty. You needn’t make any efforts for at least the rest of the year.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I need the lineup corrected, for God’s sakes! I... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  That’ll be up to your own performance, Szewczyk. There’s always a way to live on, is there not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...You’re not wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  You could’ve just sent out any old envoy to tell me this. Why’d you need to meet me personally? Are all spokespeople this bored for something to do? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Ah... don’t misunderstand me. I didn’t come out here specifically for you. I was only here to make sure of some event arrangements.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It seems we’ve been a little lax in parts. Our divisions have each encountered very minor bumps in the road, which some offenders are seeing fit to take advantage of.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Of course, your down payment will still clear. But the rates for a knightclub's reserve are an invariably different question. You understand this, correct? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Now, now... don't make any hasty moves. Your child is celebrating a tenth birthday soon, I hear. You needn't lose your job now over assaulting someone as insignificant as myself...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Roar Knightclub will still be paying you plenty. You needn't make any efforts for at least the rest of the year.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  I need the lineup corrected, for God's sakes! I... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  That'll be up to your own performance, Szewczyk. There's always a way to live on, is there not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  ...You're not wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  You could've just sent out any old envoy to tell me this. Why'd you need to meet me personally? Are all spokespeople this bored for something to do? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Ah... don't misunderstand me. I didn't come out here specifically for you. I was only here to make sure of some event arrangements.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It seems we've been a little lax in parts. Our divisions have each encountered very minor bumps in the road, which some offenders are seeing fit to take advantage of.
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Don’t put it like that. There are times one must respect the rules, and keep some conduct undisclosed—
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Don't put it like that. There are times one must respect the rules, and keep some conduct undisclosed—
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Just give it one nod of assent, and we’ll add an event for the transfer of points, along with all its formalities. Of course, in much the same manner, I can settle of some of your complications with the Roar Knightclub... 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Just give it one nod of assent, and we'll add an event for the transfer of points, along with all its formalities. Of course, in much the same manner, I can settle of some of your complications with the Roar Knightclub... 
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —OUT! The Strider Knight’s sole-mount accelerator devices are non-functional! That sudden brake knocks him off right before the finish—!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —OUT! The Strider Knight's sole-mount accelerator devices are non-functional! That sudden brake knocks him off right before the finish—!  
 </t>
   </si>
   <si>
@@ -1188,11 +1188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  With his accelerators out, the Strider Knight has fallen all the way from second place to seventh—! It’s not a good day to be the Strider! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  It just goes to show how crucial a knight’s equipment is!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  With his accelerators out, the Strider Knight has fallen all the way from second place to seventh—! It's not a good day to be the Strider! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  It just goes to show how crucial a knight's equipment is!
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (This way... I’m another step closer to the Major...)
+    <t xml:space="preserve">[name="Maria"]  (This way... I'm another step closer to the Major...)
 </t>
   </si>
   <si>
@@ -1212,15 +1212,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Oh, there’s an unexpected customer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Please, sit wherever you’d like.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Marcin... it’s really you? That tremendous knight of days gone by runs this little bar now?
+    <t xml:space="preserve">[name="Bald Marcin"]  Oh, there's an unexpected customer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Please, sit wherever you'd like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Marcin... it's really you? That tremendous knight of days gone by runs this little bar now?
 </t>
   </si>
   <si>
@@ -1228,19 +1228,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  How’d 'Plastic' Szewczyk find his way to this little place? Tell you the truth, this bar doesn’t see all that many active knights in it. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  If you’re tremendous past, Maria’s tremendous present. They carried a story about your bar on the entertainment news last night.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Hmph... tremendous all around. I’ll have a 'Red Edelweiss.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  This one’s on me.
+    <t xml:space="preserve">[name="Bald Marcin"]  How'd 'Plastic' Szewczyk find his way to this little place? Tell you the truth, this bar doesn't see all that many active knights in it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  If you're tremendous past, Maria's tremendous present. They carried a story about your bar on the entertainment news last night.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Hmph... tremendous all around. I'll have a 'Red Edelweiss.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  This one's on me.
 </t>
   </si>
   <si>
@@ -1248,19 +1248,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Roar Guards’ training camp’s a long way away. I won’t let you waste the trip.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  So, you’ve come to enemy headquarters to spy on us, then? Right that old newspaper-worthy wrong for the Majors? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...I’m not going to be in the Majors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Huh... Roar Guards’ decision? Thought you and your sponsors were on pretty good personal terms? 
+    <t xml:space="preserve">[name="Bald Marcin"]  Roar Guards' training camp's a long way away. I won't let you waste the trip.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  So, you've come to enemy headquarters to spy on us, then? Right that old newspaper-worthy wrong for the Majors? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  ...I'm not going to be in the Majors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Huh... Roar Guards' decision? Thought you and your sponsors were on pretty good personal terms? 
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I know what you want to say, Marcin. Up there, you’re thinking, 'how’s a tiny little Plastic Knight get into such a big mess?'
+    <t xml:space="preserve">[name="Plastic Knight"]  I know what you want to say, Marcin. Up there, you're thinking, 'how's a tiny little Plastic Knight get into such a big mess?'
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  A rumor’s spreading door-to-door. People saying the Radiant Knight was never even Infected, that her exile from Kazimierz was more complicated than that...
+    <t xml:space="preserve">[name="Plastic Knight"]  A rumor's spreading door-to-door. People saying the Radiant Knight was never even Infected, that her exile from Kazimierz was more complicated than that...
 </t>
   </si>
   <si>
@@ -1300,19 +1300,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Put your guard down... I’m not probing you here, Marcin.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I just want Czarny to learn there’s a price to pay for pissing about with nobles... and I’m assuming he’s got one eye on Maria Nearl too, doesn’t he?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...The knights are joining hands and protesting the Association? This sort of thing won’t ever end well. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I’m just trying not to be ridden roughshod.
+    <t xml:space="preserve">[name="Plastic Knight"]  Put your guard down... I'm not probing you here, Marcin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  I just want Czarny to learn there's a price to pay for pissing about with nobles... and I'm assuming he's got one eye on Maria Nearl too, doesn't he?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  ...The knights are joining hands and protesting the Association? This sort of thing won't ever end well. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  I'm just trying not to be ridden roughshod.
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  No. I’m ready to go my own way now, aren’t I?
+    <t xml:space="preserve">[name="Plastic Knight"]  No. I'm ready to go my own way now, aren't I?
 </t>
   </si>
   <si>
@@ -1336,11 +1336,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...Hmph. No knight ever needed to bow to the peddlers. Roar Knightclub’ll see things my way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hey, you’ve been tailing us for ages now. Time you showed your face, right?
+    <t xml:space="preserve">[name="Plastic Knight"]  ...Hmph. No knight ever needed to bow to the peddlers. Roar Knightclub'll see things my way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hey, you've been tailing us for ages now. Time you showed your face, right?
 </t>
   </si>
   <si>
@@ -1352,15 +1352,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="'Flametail' Sonna"]  —Thought I’d say that and keel over, Armorless Union assassin?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hmm... so this is how you’re molded. Way you dodge about everywhere, no-one’s actually seen your looks before. Real gloomy line of work you’re in...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Flametail' Sonna"]  Don’t get the chance everyday—
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  —Thought I'd say that and keel over, Armorless Union assassin?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Hmm... so this is how you're molded. Way you dodge about everywhere, no-one's actually seen your looks before. Real gloomy line of work you're in...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Sonna"]  Don't get the chance everyday—
 </t>
   </si>
   <si>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Go to the Knights Association this moment and exit the tournament. You don’t have the faintest idea what you’re doing.
+    <t xml:space="preserve">[name="Młynar"]  Go to the Knights Association this moment and exit the tournament. You don't have the faintest idea what you're doing.
 </t>
   </si>
   <si>
@@ -1416,15 +1416,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  These annoyances all lie low in the face of the Major, so this is up to you to do, but you’ve already earned yourself plenty of attention.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Abandon the idea that you can force your way into the Major. Abandon, also, any idea that you’ve yet faced the strongest competition knights. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  But I don’t want to just sit and watch while the Nearl family’s nobility gets stripped—
+    <t xml:space="preserve">[name="Młynar"]  These annoyances all lie low in the face of the Major, so this is up to you to do, but you've already earned yourself plenty of attention.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Abandon the idea that you can force your way into the Major. Abandon, also, any idea that you've yet faced the strongest competition knights. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  But I don't want to just sit and watch while the Nearl family's nobility gets stripped—
 </t>
   </si>
   <si>
@@ -1436,11 +1436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  I’ve made it clear before that the Nearls do not need the approval of the Knights Association, obscene as it now is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Have you somehow come to believe that without their recognition, our ancestors’ deeds would cease to exist? Nonsense! For all these years, the Nearl family stood alone to defend our name!  
+    <t xml:space="preserve">[name="Młynar"]  I've made it clear before that the Nearls do not need the approval of the Knights Association, obscene as it now is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Have you somehow come to believe that without their recognition, our ancestors' deeds would cease to exist? Nonsense! For all these years, the Nearl family stood alone to defend our name!  
 </t>
   </si>
   <si>
@@ -1460,11 +1460,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Don’t give me that look. Have I said anything wrong? And surmounting the rulesetters within their own rules? Lunatic ravings.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  You know Margaret’s temper. What she ultimately despised was the commercialization of the competition knights. I thought she had some backbone...
+    <t xml:space="preserve">[name="Młynar"]  Don't give me that look. Have I said anything wrong? And surmounting the rulesetters within their own rules? Lunatic ravings.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  You know Margaret's temper. What she ultimately despised was the commercialization of the competition knights. I thought she had some backbone...
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Uncle... don’t talk about Margaret like this...
+    <t xml:space="preserve">[name="Maria"]  Uncle... don't talk about Margaret like this...
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  'The Radiant Knight' is a title she should’ve never been conferred! She has no power to shoulder any glory of the sort!
+    <t xml:space="preserve">[name="Młynar"]  'The Radiant Knight' is a title she should've never been conferred! She has no power to shoulder any glory of the sort!
 </t>
   </si>
   <si>
@@ -1500,11 +1500,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Aren’t you... working for the corporations, even now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  You forbid me from competing while you go play servant boy to the corporations and watch the Nearl family’s knighthood slip away? You can stomach that?! 
+    <t xml:space="preserve">[name="Maria"]  Aren't you... working for the corporations, even now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  You forbid me from competing while you go play servant boy to the corporations and watch the Nearl family's knighthood slip away? You can stomach that?! 
 </t>
   </si>
   <si>
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  You’re still young. For that, I won’t blame your ignorance... but you should show respect to your elders.
+    <t xml:space="preserve">[name="Młynar"]  You're still young. For that, I won't blame your ignorance... but you should show respect to your elders.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  You’re right, Maria, you’re right. I am good for nothing, nothing more than a corporate, captive burdenbeast.
+    <t xml:space="preserve">[name="Młynar"]  You're right, Maria, you're right. I am good for nothing, nothing more than a corporate, captive burdenbeast.
 </t>
   </si>
   <si>
@@ -1560,15 +1560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  The project meeting? Today? No, I didn’t forget... Apologies, my greatest apologies, I’m very sorry, you’re right...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  I’ll be back there momentarily... What? No, he doesn’t understand the scope of the project... Yes, I’m sorry... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Then if... If he could present in my stead... Yes, my apologies... The manager’s responsibility? I... Yes, this will be the last time. No, there won’t be a next time. 
+    <t xml:space="preserve">[name="Młynar"]  The project meeting? Today? No, I didn't forget... Apologies, my greatest apologies, I'm very sorry, you're right...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  I'll be back there momentarily... What? No, he doesn't understand the scope of the project... Yes, I'm sorry... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Then if... If he could present in my stead... Yes, my apologies... The manager's responsibility? I... Yes, this will be the last time. No, there won't be a next time. 
 </t>
   </si>
   <si>
@@ -1584,11 +1584,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  You won’t change my mind, Uncle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  You’re just like Margaret... you disgust me.
+    <t xml:space="preserve">[name="Maria"]  You won't change my mind, Uncle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  You're just like Margaret... you disgust me.
 </t>
   </si>
   <si>
